--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-evaluation.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -6574,7 +6577,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6611,10 +6614,10 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -6650,7 +6653,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6674,7 +6677,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6682,10 +6685,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6693,7 +6696,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
@@ -6711,13 +6714,13 @@
         <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6731,7 +6734,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -6767,7 +6770,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6791,7 +6794,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6799,10 +6802,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6825,13 +6828,13 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6882,7 +6885,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6906,7 +6909,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -6914,10 +6917,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6940,16 +6943,16 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6999,7 +7002,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7023,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7031,14 +7034,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7057,17 +7060,17 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7116,7 +7119,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7137,10 +7140,10 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7148,10 +7151,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7174,16 +7177,16 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7233,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7254,10 +7257,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7265,14 +7268,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7291,19 +7294,19 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7352,7 +7355,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7367,16 +7370,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7384,10 +7387,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7413,16 +7416,16 @@
         <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7450,10 +7453,10 @@
         <v>271</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7471,7 +7474,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7486,31 +7489,31 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7529,19 +7532,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7590,7 +7593,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7605,27 +7608,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7648,19 +7651,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7709,7 +7712,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7724,31 +7727,31 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7767,19 +7770,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7828,7 +7831,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7843,31 +7846,31 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7889,16 +7892,16 @@
         <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7947,7 +7950,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7962,27 +7965,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8008,16 +8011,16 @@
         <v>221</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8066,7 +8069,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8081,27 +8084,27 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8124,16 +8127,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8183,7 +8186,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8195,19 +8198,19 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8215,10 +8218,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8330,10 +8333,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8443,10 +8446,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>245</v>
@@ -8546,7 +8549,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8560,14 +8563,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8589,10 +8592,10 @@
         <v>112</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>115</v>
@@ -8647,7 +8650,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8679,10 +8682,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8708,14 +8711,14 @@
         <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8764,7 +8767,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>91</v>
@@ -8782,13 +8785,13 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8796,10 +8799,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8825,16 +8828,16 @@
         <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8883,7 +8886,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8907,7 +8910,7 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -8915,10 +8918,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8944,14 +8947,14 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9000,7 +9003,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9024,7 +9027,7 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9032,10 +9035,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9058,16 +9061,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9117,7 +9120,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9132,16 +9135,16 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9149,10 +9152,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9264,10 +9267,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9381,14 +9384,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9410,10 +9413,10 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
@@ -9468,7 +9471,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9500,10 +9503,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9526,19 +9529,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9566,10 +9569,10 @@
         <v>158</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9587,7 +9590,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9611,7 +9614,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9619,10 +9622,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9648,14 +9651,14 @@
         <v>81</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9704,7 +9707,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9728,7 +9731,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -9736,10 +9739,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9762,17 +9765,17 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9821,7 +9824,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9836,7 +9839,7 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9845,7 +9848,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -9853,10 +9856,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9968,10 +9971,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10081,10 +10084,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>245</v>
@@ -10181,7 +10184,7 @@
         <v>120</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10198,14 +10201,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10227,10 +10230,10 @@
         <v>112</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>115</v>
@@ -10285,7 +10288,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10317,10 +10320,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10346,14 +10349,14 @@
         <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10402,7 +10405,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>91</v>
@@ -10417,7 +10420,7 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10426,7 +10429,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10434,10 +10437,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10463,16 +10466,16 @@
         <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10521,7 +10524,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10548,7 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10582,14 +10585,14 @@
         <v>105</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10638,7 +10641,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10662,7 +10665,7 @@
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -10670,10 +10673,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10696,16 +10699,16 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10755,7 +10758,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10773,7 @@
         <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10779,7 +10782,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -10787,10 +10790,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10902,10 +10905,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11019,14 +11022,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11048,10 +11051,10 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
@@ -11106,7 +11109,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11138,10 +11141,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11164,19 +11167,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11204,10 +11207,10 @@
         <v>158</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11225,7 +11228,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11249,7 +11252,7 @@
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11257,10 +11260,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11286,14 +11289,14 @@
         <v>81</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11342,7 +11345,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11366,7 +11369,7 @@
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11374,10 +11377,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11400,17 +11403,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11459,7 +11462,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11474,7 +11477,7 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11483,7 +11486,7 @@
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11491,10 +11494,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11606,10 +11609,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11719,10 +11722,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>245</v>
@@ -11819,7 +11822,7 @@
         <v>120</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -11836,14 +11839,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11865,10 +11868,10 @@
         <v>112</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>115</v>
@@ -11923,7 +11926,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11955,10 +11958,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11984,14 +11987,14 @@
         <v>105</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12040,7 +12043,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>91</v>
@@ -12055,7 +12058,7 @@
         <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12064,7 +12067,7 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12072,10 +12075,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12101,16 +12104,16 @@
         <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12159,7 +12162,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12183,7 +12186,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12191,10 +12194,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12220,14 +12223,14 @@
         <v>105</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12276,7 +12279,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12300,7 +12303,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12308,10 +12311,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12334,16 +12337,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12393,7 +12396,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12408,7 +12411,7 @@
         <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12417,7 +12420,7 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12425,10 +12428,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12540,10 +12543,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12657,14 +12660,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12686,10 +12689,10 @@
         <v>112</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>115</v>
@@ -12744,7 +12747,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12776,10 +12779,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12802,19 +12805,19 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -12842,10 +12845,10 @@
         <v>158</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -12863,7 +12866,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12887,7 +12890,7 @@
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -12895,10 +12898,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12924,14 +12927,14 @@
         <v>81</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -12980,7 +12983,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13004,7 +13007,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13012,10 +13015,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13041,14 +13044,14 @@
         <v>81</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13097,7 +13100,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13121,7 +13124,7 @@
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>QuestionnaireResponse.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -898,7 +898,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -974,7 +974,7 @@
     <t>QuestionnaireResponse.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(Observation|Procedure)
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
+    <t xml:space="preserve">canonical(Questionnaire)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -1426,7 +1426,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
   </si>
   <si>
     <t>.item</t>
@@ -1854,15 +1854,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="88.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.38671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1873,27 +1873,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.25390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.6328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="95.85546875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.78515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.7265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>QuestionnaireResponse.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -898,7 +898,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -974,7 +974,7 @@
     <t>QuestionnaireResponse.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
+    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -1426,7 +1426,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t>.item</t>
@@ -1854,15 +1854,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="88.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1873,27 +1873,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="52.78515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.7265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.6328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="95.85546875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>QuestionnaireResponse.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -898,7 +898,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -974,7 +974,7 @@
     <t>QuestionnaireResponse.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(Observation|Procedure)
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
+    <t xml:space="preserve">canonical(Questionnaire)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -1426,7 +1426,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
   </si>
   <si>
     <t>.item</t>
@@ -1854,15 +1854,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="88.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.38671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1873,27 +1873,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.25390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.6328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="95.85546875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.78515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.7265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>QuestionnaireResponse.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -767,7 +767,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>pieceJointeEvaluation</t>
@@ -898,7 +898,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -974,7 +974,7 @@
     <t>QuestionnaireResponse.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
+    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -1426,7 +1426,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t>.item</t>
@@ -1854,15 +1854,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="88.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1873,27 +1873,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="52.78515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.7265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.6328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="95.85546875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>TDDUIQRParticipant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>QuestionnaireResponse.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.2.0-ballot)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>TDDUIQRParticipant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>QuestionnaireResponse.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>TDDUIQRParticipant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>QuestionnaireResponse.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>TDDUIAttachment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.2.0-ballot)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/main/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
